--- a/Excel_Files/Dynamic_Range/2.5_cm/673_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/2.5_cm/673_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>579.931</v>
+        <v>188.996</v>
       </c>
       <c r="D2">
-        <v>2459.682</v>
+        <v>551.631</v>
       </c>
       <c r="E2">
-        <v>1779.155</v>
+        <v>439.701</v>
       </c>
       <c r="F2">
-        <v>6338.685</v>
+        <v>1350.344</v>
       </c>
       <c r="G2">
-        <v>1938.525</v>
+        <v>527.646</v>
       </c>
       <c r="H2">
-        <v>13626.186</v>
+        <v>2305.565</v>
       </c>
       <c r="I2">
-        <v>1333.266</v>
+        <v>364.67</v>
       </c>
       <c r="J2">
-        <v>2058.712</v>
+        <v>514.87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>118.992</v>
+        <v>51.581</v>
       </c>
       <c r="D3">
-        <v>554.049</v>
+        <v>157.275</v>
       </c>
       <c r="E3">
-        <v>264.661</v>
+        <v>98.623</v>
       </c>
       <c r="F3">
-        <v>357.127</v>
+        <v>129.828</v>
       </c>
       <c r="G3">
-        <v>528.744</v>
+        <v>183.289</v>
       </c>
       <c r="H3">
-        <v>819.991</v>
+        <v>251.785</v>
       </c>
       <c r="I3">
-        <v>143.703</v>
+        <v>61.891</v>
       </c>
       <c r="J3">
-        <v>68.83499999999999</v>
+        <v>34.125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>31.029</v>
+        <v>17.254</v>
       </c>
       <c r="D4">
-        <v>60.83</v>
+        <v>28.88</v>
       </c>
       <c r="E4">
-        <v>58.656</v>
+        <v>28.669</v>
       </c>
       <c r="F4">
-        <v>40.305</v>
+        <v>21.586</v>
       </c>
       <c r="G4">
-        <v>70.63500000000001</v>
+        <v>34.563</v>
       </c>
       <c r="H4">
-        <v>84.752</v>
+        <v>39.934</v>
       </c>
       <c r="I4">
-        <v>56.261</v>
+        <v>27.923</v>
       </c>
       <c r="J4">
-        <v>12.498</v>
+        <v>8.186</v>
       </c>
     </row>
   </sheetData>
